--- a/tutorial/supply/tests/supplier_excel_data/绳头组合.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/绳头组合.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/供应商数据表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41F2A63-4A78-7B4C-A3A9-F394E83D51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A8087-83FC-1142-9C8D-F0AD2B1EFEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="2220" windowWidth="27840" windowHeight="16940" xr2:uid="{31D98C76-2CE1-5040-BACB-70530AA25457}"/>
+    <workbookView xWindow="10560" yWindow="3240" windowWidth="27840" windowHeight="16940" xr2:uid="{31D98C76-2CE1-5040-BACB-70530AA25457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>合同号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -355,16 +367,16 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,28 +698,28 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="28">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -742,9 +754,15 @@
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="13" t="s">
         <v>10</v>
       </c>

--- a/tutorial/supply/tests/supplier_excel_data/绳头组合.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/绳头组合.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengzhenbo/Library/Mobile Documents/com~apple~CloudDocs/04Project/ElevatorCertificate/ElevatorCertificate/tutorial/supply/tests/supplier_excel_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\新建文件夹\supplier_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A8087-83FC-1142-9C8D-F0AD2B1EFEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="3240" windowWidth="27840" windowHeight="16940" xr2:uid="{31D98C76-2CE1-5040-BACB-70530AA25457}"/>
+    <workbookView xWindow="10560" yWindow="3240" windowWidth="27840" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,42 +67,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XZ21120090</t>
-  </si>
-  <si>
     <t>杭州鸿翔机械有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1999/9/10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc12</t>
+    <t>Φ8-HX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX B31002720220012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZ22230535</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,9 +381,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="1" xr:uid="{E3DFB854-79D5-CE48-BE9C-DDD3B99BCF3B}"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 2 2" xfId="2" xr:uid="{4DF4E73D-DAAF-954E-B3D7-3F0EC2B555E9}"/>
+    <cellStyle name="常规 2 2 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,16 +694,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF2983-59EA-6746-A7B6-3FC52F427723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="23" t="s">
@@ -715,12 +719,12 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -741,33 +745,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
